--- a/biology/Zoologie/Bolitoglossa_jacksoni/Bolitoglossa_jacksoni.xlsx
+++ b/biology/Zoologie/Bolitoglossa_jacksoni/Bolitoglossa_jacksoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa jacksoni est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa jacksoni est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du département de Huehuetenango dans l'Ouest du Guatemala. Elle n'est connue que de Finca Chiblac sa localité type, à environ 12 km au Nord-Nord-Est de Santa Cruz Barillas. Elle est présente à environ 1 400 m d'altitude dans la Sierra de los Cuchumatanes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du département de Huehuetenango dans l'Ouest du Guatemala. Elle n'est connue que de Finca Chiblac sa localité type, à environ 12 km au Nord-Nord-Est de Santa Cruz Barillas. Elle est présente à environ 1 400 m d'altitude dans la Sierra de los Cuchumatanes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 92,5 mm dont 43,4 mm pour la queue[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 92,5 mm dont 43,4 mm pour la queue.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'a pas été observée entre 1975 et 2017, ce qui a conduit les scientifiques à craindre sa disparition[3]. L'ONG Global Wildlife Conservation l'avait alors placée sur sa liste des 25 espèces « perdues » à retrouver dans le cadre de son programme lost species[3],[4]. L'UICN n'a pas évalué son statut de conservation par manque de données sur les populations[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'a pas été observée entre 1975 et 2017, ce qui a conduit les scientifiques à craindre sa disparition. L'ONG Global Wildlife Conservation l'avait alors placée sur sa liste des 25 espèces « perdues » à retrouver dans le cadre de son programme lost species,. L'UICN n'a pas évalué son statut de conservation par manque de données sur les populations.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jeremy L. Jackson[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jeremy L. Jackson.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Elias, 1984 : Salamanders of the northwestern highlands of Guatemala. Contributions in Science, Natural History Museum of Los Angeles County, no 348, p. 1-20 (texte intégral).</t>
         </is>
